--- a/src/test/java/resource/student.xlsx
+++ b/src/test/java/resource/student.xlsx
@@ -24,39 +24,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年级二班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年级一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年级二班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六年级一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年级二班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五年级一班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一年级二班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六年级一班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,13 +79,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,8 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,7 +432,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,15 +440,15 @@
     <col min="3" max="3" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -433,10 +456,10 @@
         <v>1010001</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -444,10 +467,10 @@
         <v>1010002</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -455,10 +478,10 @@
         <v>1010003</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -466,10 +489,10 @@
         <v>1010004</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
